--- a/data_voor_excel.xlsx
+++ b/data_voor_excel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,778 +458,1174 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40179</v>
+        <v>39083</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40210</v>
+        <v>39114</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04505742048531824</v>
+        <v>-0.02212206245684956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03274821867388655</v>
+        <v>0.02545120282703017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40238</v>
+        <v>39142</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670466960393965</v>
+        <v>0.004217705482416179</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.004386396377547008</v>
+        <v>-0.01113124933509624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40269</v>
+        <v>39173</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02207178136298671</v>
+        <v>0.05001931565402429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05883436293398447</v>
+        <v>0.02053542010936238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40299</v>
+        <v>39203</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07993714996921086</v>
+        <v>0.04163617566584232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03051314688317142</v>
+        <v>-0.02310322711238377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40330</v>
+        <v>39234</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06378957332701618</v>
+        <v>0.005759936532639509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02355318906837622</v>
+        <v>-0.01937754431980876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40360</v>
+        <v>39264</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07197733685748808</v>
+        <v>-0.01301600762444843</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05087115734616698</v>
+        <v>0.02365029332275403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40391</v>
+        <v>39295</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0692193035098656</v>
+        <v>0.0288375292533205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05706125282865315</v>
+        <v>0.01109584613741466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40422</v>
+        <v>39326</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126646653328103</v>
+        <v>0.03572059694847063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04775558440048822</v>
+        <v>0.1050812664749683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40452</v>
+        <v>39356</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06402860307878</v>
+        <v>0.06765686561235773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03682269814892791</v>
+        <v>0.0695143580717299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40483</v>
+        <v>39387</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.009465737661568108</v>
+        <v>-0.07975291491138803</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02111297809416768</v>
+        <v>-0.01653527100409991</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40513</v>
+        <v>39417</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04982945149848961</v>
+        <v>0.00974156472361587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02436865379100683</v>
+        <v>0.06647697115798756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40544</v>
+        <v>39448</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04543279116525523</v>
+        <v>-0.1294043538200382</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06379762129208244</v>
+        <v>0.1084162326056788</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40575</v>
+        <v>39479</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02439792146628705</v>
+        <v>-0.02950720541515506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05998312803425154</v>
+        <v>0.05229757876911489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40603</v>
+        <v>39508</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01938949549320357</v>
+        <v>0.003751006080579211</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01598138086384293</v>
+        <v>-0.05999164716945737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40634</v>
+        <v>39539</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03051546151342954</v>
+        <v>0.07179388175913926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08944654978008071</v>
+        <v>-0.0415883418198143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40664</v>
+        <v>39569</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01812971259381468</v>
+        <v>0.06368142858554093</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01791688531222591</v>
+        <v>0.009232491728512704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40695</v>
+        <v>39600</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.02523453298795963</v>
+        <v>-0.08971690735186466</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02432504279935355</v>
+        <v>0.0451687217321981</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40725</v>
+        <v>39630</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.001420970911036101</v>
+        <v>-0.01307822655591451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08417803620638908</v>
+        <v>-0.01444200954909691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40756</v>
+        <v>39661</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.06417916782726973</v>
+        <v>0.02631073469972356</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1227494393751578</v>
+        <v>-0.09291743535130026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40787</v>
+        <v>39692</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.04121645176291988</v>
+        <v>-0.1317364700354794</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1106234724683264</v>
+        <v>0.04112104574714248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40817</v>
+        <v>39722</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1227978030451888</v>
+        <v>-0.1795257750052719</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0587118747477946</v>
+        <v>-0.1613965370422935</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40848</v>
+        <v>39753</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01992787612480729</v>
+        <v>-0.1163648392442431</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01667269395230719</v>
+        <v>0.1257359360970265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40878</v>
+        <v>39783</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.01745104250760465</v>
+        <v>0.01218824175537736</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1066243394405559</v>
+        <v>0.07732535516442862</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40909</v>
+        <v>39814</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08769625902606748</v>
+        <v>-0.02454879997654202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1139548091286087</v>
+        <v>0.05536293459751551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40940</v>
+        <v>39845</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06975694299244539</v>
+        <v>-0.04042562201282429</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.02964978054957235</v>
+        <v>0.01445624499088582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40969</v>
+        <v>39873</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04700075809788817</v>
+        <v>0.1159327385089164</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01320834048100528</v>
+        <v>-0.02536973490015282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41000</v>
+        <v>39904</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01995183212317941</v>
+        <v>0.129435523538425</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001480324707643366</v>
+        <v>-0.03334074188003566</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41030</v>
+        <v>39934</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.08184297272338392</v>
+        <v>0.02588583419588097</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.06338034010471139</v>
+        <v>0.1023261217907387</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41061</v>
+        <v>39965</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02966297393795836</v>
+        <v>0.04311622793365011</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02354575543588089</v>
+        <v>-0.05218291894299409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41091</v>
+        <v>39995</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005237991337728065</v>
+        <v>0.09253164801116176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008376847936764742</v>
+        <v>0.0237990585839265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41122</v>
+        <v>40026</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05123735662881646</v>
+        <v>0.02515018401423896</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04939609851235338</v>
+        <v>0.0005356513398515617</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41153</v>
+        <v>40057</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01060193749003813</v>
+        <v>0.04634111397163476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.046705627280061</v>
+        <v>0.0583511441028417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41183</v>
+        <v>40087</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.06498691896013387</v>
+        <v>-0.011823660280736</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02943741681634138</v>
+        <v>0.03722812708124823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41214</v>
+        <v>40118</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01588248755508848</v>
+        <v>0.0523219782114277</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.004675410721908135</v>
+        <v>0.1278650225927709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41244</v>
+        <v>40148</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.008749156766877708</v>
+        <v>0.05742942431608267</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.02426979045607558</v>
+        <v>-0.07203391451937646</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41275</v>
+        <v>40179</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03434103443890035</v>
+        <v>-0.07758147317553998</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.005061148639644464</v>
+        <v>-0.01258036068246082</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41306</v>
+        <v>40210</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005237581739762964</v>
+        <v>0.04505750927053653</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.05086846838387371</v>
+        <v>0.03274821867388655</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41334</v>
+        <v>40238</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0266160866426739</v>
+        <v>0.06704645215636895</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009477104236877087</v>
+        <v>-0.004386396377547008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41365</v>
+        <v>40269</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00534980262308471</v>
+        <v>0.02207209115297015</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0756231330952718</v>
+        <v>0.05883436293398447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41395</v>
+        <v>40299</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04243405371748254</v>
+        <v>-0.07993736763374226</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.06198785346133606</v>
+        <v>0.03051314688317142</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41426</v>
+        <v>40330</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.03167528302371059</v>
+        <v>-0.06378950264578387</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1105883942733509</v>
+        <v>0.02355318906837622</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41456</v>
+        <v>40360</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05447396603772936</v>
+        <v>0.07197725654868536</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07430105304988111</v>
+        <v>-0.05087115734616698</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41487</v>
+        <v>40391</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.004358335485082798</v>
+        <v>-0.06921883032339893</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05204748421667516</v>
+        <v>0.05706125282865315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41518</v>
+        <v>40422</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03901104355325757</v>
+        <v>0.1266460890091665</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.04783837969835159</v>
+        <v>0.04775558440048822</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41548</v>
+        <v>40452</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0365555619892135</v>
+        <v>0.06402876689888259</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.003432632525768975</v>
+        <v>0.03682269814892791</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41579</v>
+        <v>40483</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03562418864543515</v>
+        <v>-0.009465882358899336</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.05511195422936577</v>
+        <v>0.02111297809416768</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41609</v>
+        <v>40513</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03359150054550986</v>
+        <v>0.04982953181763539</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.03794527189279151</v>
+        <v>0.02436865379100683</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41640</v>
+        <v>40544</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.01281649729250789</v>
+        <v>0.04543272475291049</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03418871423877445</v>
+        <v>-0.06379762129208244</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41671</v>
+        <v>40575</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04860492268282579</v>
+        <v>0.02439792471363655</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0627030280482701</v>
+        <v>0.05998312803425154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41699</v>
+        <v>40603</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.001744937852737105</v>
+        <v>-0.0193893680830447</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.03142142336568687</v>
+        <v>0.01598138086384293</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41730</v>
+        <v>40634</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.008740300641668419</v>
+        <v>0.03051546151342954</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0049348807324614</v>
+        <v>0.08944654978008071</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41760</v>
+        <v>40664</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03438754056421911</v>
+        <v>-0.01812964830633346</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.03051039187154414</v>
+        <v>-0.01791688531222591</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41791</v>
+        <v>40695</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03132681525428915</v>
+        <v>-0.02523466228476323</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06319017654797743</v>
+        <v>-0.02432504279935355</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41821</v>
+        <v>40725</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005165874239041024</v>
+        <v>-0.001420836667459957</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.03631673024297155</v>
+        <v>0.08417803620638908</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41852</v>
+        <v>40756</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04255310303670279</v>
+        <v>-0.06417936530550383</v>
       </c>
       <c r="C57" t="n">
-        <v>0.003809070613728816</v>
+        <v>0.1227494393751578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41883</v>
+        <v>40787</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.0133100078270707</v>
+        <v>-0.04121624205350782</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.06176329313887929</v>
+        <v>-0.1106234724683264</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41913</v>
+        <v>40817</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01908472277814122</v>
+        <v>0.122797793839273</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.03054810644807593</v>
+        <v>0.0587118747477946</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41944</v>
+        <v>40848</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04990700440054807</v>
+        <v>-0.01992787479424296</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00488197260677703</v>
+        <v>0.01667269395230719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41974</v>
+        <v>40878</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.02428061893481726</v>
+        <v>-0.01745117757195513</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01311213284006874</v>
+        <v>-0.1066243394405559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42005</v>
+        <v>40909</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.03512664735657012</v>
+        <v>0.08769640377987198</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08689905756357263</v>
+        <v>0.1139548091286087</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42036</v>
+        <v>40940</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08332534321809537</v>
+        <v>0.06975661981419856</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.05905219494812319</v>
+        <v>-0.02964978054957235</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42064</v>
+        <v>40969</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02463157544672756</v>
+        <v>0.04700088847997219</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.02152203788898022</v>
+        <v>-0.01320834048100528</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42095</v>
+        <v>41000</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01286175776271214</v>
+        <v>-0.01995172056527028</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.001671673722368427</v>
+        <v>-0.001480324707643366</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42125</v>
+        <v>41030</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02493247133713705</v>
+        <v>-0.08184297272338392</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005552104050766671</v>
+        <v>-0.06338034010471139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42156</v>
+        <v>41061</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.03933794703026849</v>
+        <v>0.02966297393795836</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01516210123290618</v>
+        <v>0.02354575543588089</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42186</v>
+        <v>41091</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02268650022424867</v>
+        <v>0.005237745627400425</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.06620986259282224</v>
+        <v>0.008376847936764742</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42217</v>
+        <v>41122</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.05798959290900962</v>
+        <v>0.05123761358283208</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03707232801234017</v>
+        <v>0.04939609851235338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42248</v>
+        <v>41153</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.0228648659940458</v>
+        <v>0.0106018212318002</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01801138660144541</v>
+        <v>0.046705627280061</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42278</v>
+        <v>41183</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1153687861538868</v>
+        <v>-0.06498646628166305</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02283363679084505</v>
+        <v>-0.02943741681634138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
+        <v>41214</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01588211259029637</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.004675410721908135</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.008749338432900489</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.02426979045607558</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.03434122400207462</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.005061148639644464</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.005237581739762964</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.05086846838387371</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0266160866426739</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.009477104236877087</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.00534991708429744</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.0756231330952718</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.04243382118204897</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.06198785346133606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.0316751772656152</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.1105883942733509</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.05447430440846301</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.07430105304988111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.004358548013500885</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.05204748421667516</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.03901114679396334</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.04783837969835159</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>41548</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.03655524423550682</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.003432632525768975</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.03562459120543937</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.05511195422936577</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.03359091291744942</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.03794527189279151</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.01281603492608552</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.03418871423877445</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0486046303070351</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0627030280482701</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.00174493800982356</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.03142142336568687</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.008740211248375429</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0049348807324614</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.03438754056421911</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.03051039187154414</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.03132663934988544</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.06319017654797743</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.005165875120139107</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.03631673024297155</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.04255302541495332</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.003809070613728816</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.01330944142061119</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.06176329313887929</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.01908471648192744</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.03054810644807593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0499068263789999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.00488197260677703</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.02428092353336397</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.01311213284006874</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.03512641589555698</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.08689905756357263</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.08332517263560302</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.05905219494812319</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.02463157730843191</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.02152203788898022</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01286168126863507</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.001671673722368427</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.02493270467235842</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.005552104050766671</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.03933786944824125</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.01516210123290618</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.02268641899640067</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.06620986259282224</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.05798981643878665</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.03707232801234017</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.02286486968241375</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.01801138660144541</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1153689702859575</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.02283363679084505</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.01185948568291173</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B108" t="n">
+        <v>0.01185941167768445</v>
+      </c>
+      <c r="C108" t="n">
         <v>-0.06752062833262484</v>
       </c>
     </row>
